--- a/biology/Zoologie/Chilomycterus_reticulatus/Chilomycterus_reticulatus.xlsx
+++ b/biology/Zoologie/Chilomycterus_reticulatus/Chilomycterus_reticulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilomycterus reticulatus est une espèce de poissons tetraodontiformes de la famille des Diodontidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chilomycterus reticulatus (Linnaeus, 1758)[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Diodon[2], Poisson-hérisson ponctué[2].
-Chilomycterus reticulatus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chilomycterus reticulatus (Linnaeus, 1758).
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Diodon, Poisson-hérisson ponctué.
+Chilomycterus reticulatus a pour synonymes :
 Chilomycteris reticulatus (Linnaeus, 1758)
 Chilomycterus affinis Günther, 1870
 Chilomycterus atinga (Linnaeus, 1758)
@@ -551,7 +565,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Linnaeus, C. (1758). Systema Naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis. Editio decima, reformata [10th revised edition], vol. 1: 824 pp. Laurentius Salvius: Holmiae. lire</t>
         </is>
